--- a/Sakurazaka_database.xlsx
+++ b/Sakurazaka_database.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwcon\PycharmProjects\pythonProject2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C579BD5C-E850-405A-8B2D-30F74EABED5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AD4530-25BD-4444-9B89-0CBF0DBA1E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{7AB28657-833D-4AD9-99BC-5B89CFDF4427}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="15165" windowHeight="10440" activeTab="2" xr2:uid="{7AB28657-833D-4AD9-99BC-5B89CFDF4427}"/>
   </bookViews>
   <sheets>
     <sheet name="mmb_info" sheetId="1" r:id="rId1"/>
     <sheet name="song_info" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="front_row_mmb" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="149">
   <si>
     <t>Name</t>
   </si>
@@ -136,9 +136,6 @@
     <t>Song Name(JP)</t>
   </si>
   <si>
-    <t>Name(EN)</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -479,6 +476,15 @@
   </si>
   <si>
     <t>偶然の答え</t>
+  </si>
+  <si>
+    <t>W-Center</t>
+  </si>
+  <si>
+    <t>Song Name(EN)</t>
+  </si>
+  <si>
+    <t>unit member</t>
   </si>
 </sst>
 </file>
@@ -855,7 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8365FA90-E188-4336-BD27-969983780E2D}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1107,66 +1113,66 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1178,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34ED606F-7D44-425C-9AB4-0194CB2BBAC3}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1196,81 +1202,81 @@
         <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
         <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -1278,16 +1284,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -1295,16 +1301,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -1312,16 +1318,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
         <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>64</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -1329,50 +1335,50 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1380,16 +1386,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -1397,16 +1403,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
@@ -1414,16 +1420,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
@@ -1431,16 +1437,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -1448,16 +1454,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
@@ -1465,50 +1471,50 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
         <v>3</v>
@@ -1516,16 +1522,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -1533,33 +1539,33 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
         <v>19</v>
@@ -1567,50 +1573,50 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
         <v>19</v>
@@ -1618,16 +1624,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
@@ -1635,16 +1641,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -1652,50 +1658,50 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
         <v>91</v>
       </c>
-      <c r="C29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" t="s">
-        <v>92</v>
-      </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
         <v>19</v>
@@ -1703,67 +1709,67 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E34" t="s">
         <v>18</v>
@@ -1771,16 +1777,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
@@ -1788,16 +1794,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" t="s">
         <v>100</v>
       </c>
-      <c r="C36" t="s">
-        <v>101</v>
-      </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E36" t="s">
         <v>24</v>
@@ -1805,16 +1811,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E37" t="s">
         <v>16</v>
@@ -1822,16 +1828,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E38" t="s">
         <v>18</v>
@@ -1839,16 +1845,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E39" t="s">
         <v>18</v>
@@ -1856,33 +1862,33 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" t="s">
         <v>105</v>
       </c>
-      <c r="C40" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>106</v>
-      </c>
-      <c r="E40" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
         <v>51</v>
-      </c>
-      <c r="D41" t="s">
-        <v>52</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
@@ -1890,16 +1896,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s">
         <v>30</v>
@@ -1907,16 +1913,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E43" t="s">
         <v>13</v>
@@ -1924,16 +1930,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E44" t="s">
         <v>3</v>
@@ -1941,16 +1947,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E45" t="s">
         <v>15</v>
@@ -1958,16 +1964,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E46" t="s">
         <v>25</v>
@@ -1975,16 +1981,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
         <v>14</v>
@@ -1992,33 +1998,33 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
         <v>59</v>
       </c>
-      <c r="B48" t="s">
-        <v>60</v>
-      </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E49" t="s">
         <v>23</v>
@@ -2026,16 +2032,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E50" t="s">
         <v>4</v>
@@ -2050,12 +2056,304 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15F9105-229A-4CC3-B106-26D010C60237}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.265625" customWidth="1"/>
+    <col min="2" max="2" width="16.796875" customWidth="1"/>
+    <col min="3" max="3" width="18.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sakurazaka_database.xlsx
+++ b/Sakurazaka_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwcon\PycharmProjects\pythonProject2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwcon\PycharmProjects\Sakurazaka_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AD4530-25BD-4444-9B89-0CBF0DBA1E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A5556F-CFFE-4763-A9E6-73A49BE7665B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="15165" windowHeight="10440" activeTab="2" xr2:uid="{7AB28657-833D-4AD9-99BC-5B89CFDF4427}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{7AB28657-833D-4AD9-99BC-5B89CFDF4427}"/>
   </bookViews>
   <sheets>
     <sheet name="mmb_info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="152">
   <si>
     <t>Name</t>
   </si>
@@ -46,93 +46,6 @@
     <t>Gen</t>
   </si>
   <si>
-    <t>Uemura Rina</t>
-  </si>
-  <si>
-    <t>Koike Minami</t>
-  </si>
-  <si>
-    <t>Kobayashi Yui</t>
-  </si>
-  <si>
-    <t>Habu Mizuho</t>
-  </si>
-  <si>
-    <t>Saito Fuyuka</t>
-  </si>
-  <si>
-    <t>Inoue Rina</t>
-  </si>
-  <si>
-    <t>Endo Hikari</t>
-  </si>
-  <si>
-    <t>Ozono Rei</t>
-  </si>
-  <si>
-    <t>Onuma Akipo</t>
-  </si>
-  <si>
-    <t>Kousaka Marino</t>
-  </si>
-  <si>
-    <t>Takemoto Yui</t>
-  </si>
-  <si>
-    <t>Tamura Hono</t>
-  </si>
-  <si>
-    <t>Fujiyoshi Karin</t>
-  </si>
-  <si>
-    <t>Masumoto Kira</t>
-  </si>
-  <si>
-    <t>Matsuda Rina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morita Hikaru </t>
-  </si>
-  <si>
-    <t>Moriya Rena</t>
-  </si>
-  <si>
-    <t>Yamazaki Ten</t>
-  </si>
-  <si>
-    <t>Ishimori Rika</t>
-  </si>
-  <si>
-    <t>Endo Riko</t>
-  </si>
-  <si>
-    <t>Odakura Reina</t>
-  </si>
-  <si>
-    <t>Kojima Nagisa</t>
-  </si>
-  <si>
-    <t>Taniguchi Airi</t>
-  </si>
-  <si>
-    <t>Nakashima Yuzuki</t>
-  </si>
-  <si>
-    <t>Matono mio</t>
-  </si>
-  <si>
-    <t>Mukai Itoha</t>
-  </si>
-  <si>
-    <t>Murai Yu</t>
-  </si>
-  <si>
-    <t>Murayama Miu</t>
-  </si>
-  <si>
-    <t>Yamashita Shizuki</t>
-  </si>
-  <si>
     <t>Song Name(JP)</t>
   </si>
   <si>
@@ -202,9 +115,6 @@
     <t>Nobody's Fault</t>
   </si>
   <si>
-    <t>Morita Hikaru</t>
-  </si>
-  <si>
     <t>Blue Moon Kiss</t>
   </si>
   <si>
@@ -283,9 +193,6 @@
     <t>3th single</t>
   </si>
   <si>
-    <t>Watanabe Risa</t>
-  </si>
-  <si>
     <t>Samidareyo</t>
   </si>
   <si>
@@ -358,9 +265,6 @@
     <t>Grad</t>
   </si>
   <si>
-    <t>Sugai Yuuka</t>
-  </si>
-  <si>
     <t>Single</t>
   </si>
   <si>
@@ -418,24 +322,6 @@
     <t>Sukimakazeyo</t>
   </si>
   <si>
-    <t>Moriya Akane</t>
-  </si>
-  <si>
-    <t>Watanabe Rika</t>
-  </si>
-  <si>
-    <t>Harada Aoi</t>
-  </si>
-  <si>
-    <t>Ozeki Rika</t>
-  </si>
-  <si>
-    <t>Matsudaira Riko</t>
-  </si>
-  <si>
-    <t>Seki Yumiko</t>
-  </si>
-  <si>
     <t>恋が絶滅する日</t>
   </si>
   <si>
@@ -485,13 +371,136 @@
   </si>
   <si>
     <t>unit member</t>
+  </si>
+  <si>
+    <t>MORITA HIKARU</t>
+  </si>
+  <si>
+    <t>FUJIYOSHI KARIN</t>
+  </si>
+  <si>
+    <t>YAMAZAKI TEN</t>
+  </si>
+  <si>
+    <t>TAMURA HONO</t>
+  </si>
+  <si>
+    <t>MORIYA RENA</t>
+  </si>
+  <si>
+    <t>KOIKE MINAMI</t>
+  </si>
+  <si>
+    <t>WATANABE RISA</t>
+  </si>
+  <si>
+    <t>KOBAYASHI YUI</t>
+  </si>
+  <si>
+    <t>HABU MIZUHO</t>
+  </si>
+  <si>
+    <t>OZONO REI</t>
+  </si>
+  <si>
+    <t>TANIGUCHI AIRI</t>
+  </si>
+  <si>
+    <t>MATSUDA RINA</t>
+  </si>
+  <si>
+    <t>SUGAI YUUKA</t>
+  </si>
+  <si>
+    <t>YAMASHITA SHIZUKI</t>
+  </si>
+  <si>
+    <t>MASUMOTO KIRA</t>
+  </si>
+  <si>
+    <t>NAKASHIMA YUZUKI</t>
+  </si>
+  <si>
+    <t>KOJIMA NAGISA</t>
+  </si>
+  <si>
+    <t>UEMURA RINA</t>
+  </si>
+  <si>
+    <t>SAITO FUYUKA</t>
+  </si>
+  <si>
+    <t>INOUE RINA</t>
+  </si>
+  <si>
+    <t>ENDO HIKARI</t>
+  </si>
+  <si>
+    <t>ONUMA AKIPO</t>
+  </si>
+  <si>
+    <t>KOUSAKA MARINO</t>
+  </si>
+  <si>
+    <t>TAKEMOTO YUI</t>
+  </si>
+  <si>
+    <t>ISHIMORI RIKA</t>
+  </si>
+  <si>
+    <t>ODAKURA REINA</t>
+  </si>
+  <si>
+    <t>MATONO MIO</t>
+  </si>
+  <si>
+    <t>MUKAI ITOHA</t>
+  </si>
+  <si>
+    <t>MURAI YU</t>
+  </si>
+  <si>
+    <t>MURAYAMA MIU</t>
+  </si>
+  <si>
+    <t>MORIYA AKANE</t>
+  </si>
+  <si>
+    <t>WATANABE RIKA</t>
+  </si>
+  <si>
+    <t>HARADA AOI</t>
+  </si>
+  <si>
+    <t>OZEKI RIKA</t>
+  </si>
+  <si>
+    <t>MATSUDAIRA RIKO</t>
+  </si>
+  <si>
+    <t>SEKI YUMIKO</t>
+  </si>
+  <si>
+    <t>Captain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-Grad </t>
+  </si>
+  <si>
+    <t>More Information:</t>
+  </si>
+  <si>
+    <t>SP Post</t>
+  </si>
+  <si>
+    <t>sakurazaka46.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +519,14 @@
       <color rgb="FF202122"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -538,15 +555,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -859,321 +882,369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8365FA90-E188-4336-BD27-969983780E2D}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="4" max="4" width="9.06640625" customWidth="1"/>
+    <col min="3" max="3" width="17.86328125" customWidth="1"/>
+    <col min="4" max="4" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D2" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="D38" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1185,7 +1256,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1199,852 +1270,852 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
         <v>41</v>
       </c>
-      <c r="D19" t="s">
-        <v>71</v>
-      </c>
       <c r="E19" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
         <v>41</v>
       </c>
-      <c r="D20" t="s">
-        <v>71</v>
-      </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
         <v>41</v>
       </c>
-      <c r="D21" t="s">
-        <v>71</v>
-      </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E36" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E44" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E46" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E48" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E49" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E50" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2058,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15F9105-229A-4CC3-B106-26D010C60237}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2071,286 +2142,286 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Sakurazaka_database.xlsx
+++ b/Sakurazaka_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwcon\PycharmProjects\Sakurazaka_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A5556F-CFFE-4763-A9E6-73A49BE7665B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439F1E78-A8C6-46DE-92D1-5AEBC007C18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{7AB28657-833D-4AD9-99BC-5B89CFDF4427}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="151">
   <si>
     <t>Name</t>
   </si>
@@ -484,16 +484,13 @@
     <t>Captain</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-Grad </t>
-  </si>
-  <si>
     <t>More Information:</t>
   </si>
   <si>
     <t>SP Post</t>
   </si>
   <si>
-    <t>sakurazaka46.com</t>
+    <t>*Hiatus*</t>
   </si>
 </sst>
 </file>
@@ -885,7 +882,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -903,10 +900,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -916,9 +913,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -927,6 +922,9 @@
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>150</v>
+      </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -949,19 +947,16 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -970,7 +965,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -979,7 +974,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -988,7 +983,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -997,7 +992,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1006,7 +1001,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1015,7 +1010,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1024,7 +1019,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1033,40 +1028,40 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1075,16 +1070,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -1093,7 +1088,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1102,7 +1097,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -1111,7 +1106,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -1120,7 +1115,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -1129,7 +1124,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -1138,7 +1133,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -1147,7 +1142,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -1156,7 +1151,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1165,7 +1160,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -1174,18 +1169,23 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="D30" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>141</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1193,7 +1193,10 @@
       <c r="A32" t="s">
         <v>117</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1201,7 +1204,10 @@
       <c r="A33" t="s">
         <v>142</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1209,7 +1215,10 @@
       <c r="A34" t="s">
         <v>143</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1217,7 +1226,10 @@
       <c r="A35" t="s">
         <v>144</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1225,23 +1237,33 @@
       <c r="A36" t="s">
         <v>123</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>145</v>
-      </c>
-      <c r="B37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
         <v>74</v>
       </c>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>146</v>
-      </c>
-      <c r="B38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
         <v>74</v>
       </c>
       <c r="D38" s="3"/>
@@ -1255,16 +1277,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34ED606F-7D44-425C-9AB4-0194CB2BBAC3}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="34.06640625" customWidth="1"/>
     <col min="2" max="2" width="29.59765625" customWidth="1"/>
     <col min="4" max="4" width="11.796875" customWidth="1"/>
-    <col min="5" max="5" width="16.46484375" customWidth="1"/>
+    <col min="5" max="5" width="17.73046875" customWidth="1"/>
     <col min="6" max="6" width="18.265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2130,7 +2152,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Sakurazaka_database.xlsx
+++ b/Sakurazaka_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwcon\PycharmProjects\Sakurazaka_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439F1E78-A8C6-46DE-92D1-5AEBC007C18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15901F8-7D3C-4AED-8DA8-BA658EB80BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{7AB28657-833D-4AD9-99BC-5B89CFDF4427}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{7AB28657-833D-4AD9-99BC-5B89CFDF4427}"/>
   </bookViews>
   <sheets>
     <sheet name="mmb_info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="197">
   <si>
     <t>Name</t>
   </si>
@@ -491,6 +491,144 @@
   </si>
   <si>
     <t>*Hiatus*</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/69</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/68</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/67</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/66</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/65</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/64</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/63</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/62</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/61</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/60</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/59</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/51</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/58</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/57</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/56</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/55</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/54</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/53</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/45</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/43</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/46</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/47</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/48</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/50</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/03</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/06</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/07</t>
+  </si>
+  <si>
+    <t>https://sakurazaka46.com/s/s46/artist/08</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>More information</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/habuchaan/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/yuuka_sugai_official/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/seki_yumiko_official/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/_risawatanabe_/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/harada_aoi_/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/riko_matsudaira_official/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/akane.moriya_official/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ozekirika_1007/</t>
+  </si>
+  <si>
+    <t>Don't cut in line</t>
+  </si>
+  <si>
+    <t>マンホールの蓋の上</t>
+  </si>
+  <si>
+    <t>確信的クロワッサン</t>
+  </si>
+  <si>
+    <t>Manhole no Futa no Ue</t>
+  </si>
+  <si>
+    <t>Kakushinteki Croissant</t>
+  </si>
+  <si>
+    <t>僕たちのLa vie en rose</t>
+  </si>
+  <si>
+    <t>Bokutachi no La vie en rose</t>
   </si>
 </sst>
 </file>
@@ -879,43 +1017,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8365FA90-E188-4336-BD27-969983780E2D}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="3" max="3" width="17.86328125" customWidth="1"/>
-    <col min="4" max="4" width="58" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>149</v>
       </c>
       <c r="D1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>128</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -925,108 +1072,168 @@
       <c r="C3" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>118</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>129</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>130</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>131</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>120</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>132</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>133</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>134</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>114</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>112</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>125</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -1036,9 +1243,14 @@
       <c r="C15" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -1048,126 +1260,196 @@
       <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>115</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>113</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>135</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>131</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>136</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>127</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>121</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>126</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>137</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>138</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>139</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D27" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>140</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>124</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D29" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>145</v>
       </c>
@@ -1177,8 +1459,14 @@
       <c r="C30" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D30" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>141</v>
       </c>
@@ -1188,8 +1476,14 @@
       <c r="C31" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D31" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>117</v>
       </c>
@@ -1199,8 +1493,14 @@
       <c r="C32" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D32" t="s">
+        <v>180</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -1210,8 +1510,14 @@
       <c r="C33" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D33" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>143</v>
       </c>
@@ -1221,8 +1527,14 @@
       <c r="C34" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D34" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -1232,8 +1544,14 @@
       <c r="C35" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D35" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>123</v>
       </c>
@@ -1243,8 +1561,14 @@
       <c r="C36" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>146</v>
       </c>
@@ -1254,9 +1578,14 @@
       <c r="C37" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D37" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -1266,19 +1595,62 @@
       <c r="C38" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>182</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E29" r:id="rId1" xr:uid="{5806339A-9CBD-40C9-8B78-E321D1A9A73D}"/>
+    <hyperlink ref="E27" r:id="rId2" xr:uid="{96E7A4F1-A707-4B3A-B84A-60179CEE3650}"/>
+    <hyperlink ref="E26" r:id="rId3" xr:uid="{A7E8743B-6219-4F31-82E5-0C9BBBFFE449}"/>
+    <hyperlink ref="E25" r:id="rId4" xr:uid="{B646A96B-090D-4147-A16F-051ADB13E705}"/>
+    <hyperlink ref="E24" r:id="rId5" xr:uid="{F00FD7F0-6F01-4D04-8D98-0EDEE16DB79B}"/>
+    <hyperlink ref="E23" r:id="rId6" xr:uid="{6126B307-A15B-495F-941C-3C366A8E1B86}"/>
+    <hyperlink ref="E22" r:id="rId7" xr:uid="{B046E332-4021-4F93-8EA4-CF716C6F4FF3}"/>
+    <hyperlink ref="E21" r:id="rId8" xr:uid="{C8028763-DF5F-4742-AE9B-75DD20FE8797}"/>
+    <hyperlink ref="E20" r:id="rId9" xr:uid="{7BB12C46-970F-4ED7-8F90-0EA16B4D09D8}"/>
+    <hyperlink ref="E19" r:id="rId10" xr:uid="{F133F187-1E82-41BF-8734-BA551FCBDF9A}"/>
+    <hyperlink ref="E18" r:id="rId11" xr:uid="{8E8712CB-A942-4C9E-8E49-DA7074044615}"/>
+    <hyperlink ref="E17" r:id="rId12" xr:uid="{F446B91B-18B4-4609-831C-7B8FA5768244}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{BE00ADE2-AE96-44D5-8FB1-E07197BB6146}"/>
+    <hyperlink ref="E10" r:id="rId14" xr:uid="{F9BC687E-4168-4A01-8396-46C0E153C07F}"/>
+    <hyperlink ref="E9" r:id="rId15" xr:uid="{D61E74CF-3F50-4B5C-9532-857E1175D4A4}"/>
+    <hyperlink ref="E8" r:id="rId16" xr:uid="{C8E9BEA5-A806-47E2-8858-203E6FF4A934}"/>
+    <hyperlink ref="E7" r:id="rId17" xr:uid="{42DA0ED1-DE92-4F04-A9C9-D5CB6B130F3D}"/>
+    <hyperlink ref="E11" r:id="rId18" xr:uid="{0C7A2B52-3214-4E3A-8C0E-73977B8FBFE6}"/>
+    <hyperlink ref="E6" r:id="rId19" xr:uid="{E6908F8C-37F4-4025-B871-38CB3B31213F}"/>
+    <hyperlink ref="E12" r:id="rId20" xr:uid="{F5104E4E-6369-4A7C-8A41-9006E6DCB352}"/>
+    <hyperlink ref="E13" r:id="rId21" xr:uid="{056D6434-C4DA-4167-A77E-A25FA7F449EC}"/>
+    <hyperlink ref="E15" r:id="rId22" xr:uid="{76CD9955-BEDA-4516-979F-887592B3432E}"/>
+    <hyperlink ref="E16" r:id="rId23" xr:uid="{9EAB852D-6516-4539-9701-DE4B7883E211}"/>
+    <hyperlink ref="E2" r:id="rId24" xr:uid="{9A37EFE3-70E5-44AA-958C-42402CC68759}"/>
+    <hyperlink ref="E3" r:id="rId25" xr:uid="{F64DE8D7-E58E-4720-8C88-53975778C61E}"/>
+    <hyperlink ref="E4" r:id="rId26" xr:uid="{36256F53-CFA5-477C-93FC-CDFB92BADB6C}"/>
+    <hyperlink ref="E5" r:id="rId27" xr:uid="{FEEDF514-87CC-4D28-AFEE-638974ED702D}"/>
+    <hyperlink ref="E38" r:id="rId28" xr:uid="{A9B2B0FB-F932-40A6-BA49-E5038994D9E4}"/>
+    <hyperlink ref="E36" r:id="rId29" xr:uid="{564DFBEF-935F-4CC3-A698-DDA116BE3BD5}"/>
+    <hyperlink ref="E37" r:id="rId30" xr:uid="{C1F313BB-8128-443E-AF2B-CA79E6B8E885}"/>
+    <hyperlink ref="E30:E35" r:id="rId31" display="https://www.instagram.com/yuuka_sugai_official/" xr:uid="{ADE7D2B6-5F04-41FF-A6A7-5F9637499155}"/>
+    <hyperlink ref="E32" r:id="rId32" xr:uid="{B4CF96EE-0217-4493-9A21-F04AED17F384}"/>
+    <hyperlink ref="E34" r:id="rId33" xr:uid="{7014BBF9-B2EF-4E5C-BC28-8220A7FDFBDC}"/>
+    <hyperlink ref="E35" r:id="rId34" xr:uid="{265A08D5-9982-4841-AF7E-D86276B0B36E}"/>
+    <hyperlink ref="E31" r:id="rId35" xr:uid="{53628901-D6B9-43F4-AE3A-97C12A182485}"/>
+    <hyperlink ref="E30" r:id="rId36" xr:uid="{B0F159FC-B6AE-49B8-B9F3-0FA2CB875964}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34ED606F-7D44-425C-9AB4-0194CB2BBAC3}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2140,6 +2512,65 @@
         <v>118</v>
       </c>
     </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>192</v>
+      </c>
+      <c r="B53" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>195</v>
+      </c>
+      <c r="B54" t="s">
+        <v>196</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2151,8 +2582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15F9105-229A-4CC3-B106-26D010C60237}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Sakurazaka_database.xlsx
+++ b/Sakurazaka_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwcon\PycharmProjects\Sakurazaka_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15901F8-7D3C-4AED-8DA8-BA658EB80BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E11B109-8FB6-4ACF-B6B3-67A9ED36E2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{7AB28657-833D-4AD9-99BC-5B89CFDF4427}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="199">
   <si>
     <t>Name</t>
   </si>
@@ -629,6 +629,12 @@
   </si>
   <si>
     <t>Bokutachi no La vie en rose</t>
+  </si>
+  <si>
+    <t>Pre-Grad（on 1/2/2024）</t>
+  </si>
+  <si>
+    <t>魂のLiar</t>
   </si>
 </sst>
 </file>
@@ -1019,14 +1025,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8365FA90-E188-4336-BD27-969983780E2D}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="3" max="3" width="17.86328125" customWidth="1"/>
+    <col min="3" max="3" width="20.59765625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="58" customWidth="1"/>
   </cols>
@@ -1085,6 +1091,9 @@
       </c>
       <c r="B4">
         <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>197</v>
       </c>
       <c r="D4" t="s">
         <v>181</v>
@@ -1649,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34ED606F-7D44-425C-9AB4-0194CB2BBAC3}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2310,7 +2319,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="B39" t="s">
         <v>72</v>
@@ -2525,6 +2534,9 @@
       <c r="D51" t="s">
         <v>23</v>
       </c>
+      <c r="E51" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
@@ -2539,6 +2551,9 @@
       <c r="D52" t="s">
         <v>23</v>
       </c>
+      <c r="E52" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
@@ -2569,6 +2584,9 @@
       </c>
       <c r="D54" t="s">
         <v>23</v>
+      </c>
+      <c r="E54" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2582,7 +2600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15F9105-229A-4CC3-B106-26D010C60237}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>

--- a/Sakurazaka_database.xlsx
+++ b/Sakurazaka_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwcon\PycharmProjects\Sakurazaka_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E11B109-8FB6-4ACF-B6B3-67A9ED36E2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B468DAC-28EB-4102-BB8A-894CD6081283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{7AB28657-833D-4AD9-99BC-5B89CFDF4427}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{7AB28657-833D-4AD9-99BC-5B89CFDF4427}"/>
   </bookViews>
   <sheets>
     <sheet name="mmb_info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="204">
   <si>
     <t>Name</t>
   </si>
@@ -635,6 +635,21 @@
   </si>
   <si>
     <t>魂のLiar</t>
+  </si>
+  <si>
+    <t>Kimiga Sayonarawo Ietatte</t>
+  </si>
+  <si>
+    <t>君がサヨナラ言えたって・・・</t>
+  </si>
+  <si>
+    <t>8th single</t>
+  </si>
+  <si>
+    <t>何歳の頃に戻りたいのか？</t>
+  </si>
+  <si>
+    <t>What age do you want to go back to?</t>
   </si>
 </sst>
 </file>
@@ -1025,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8365FA90-E188-4336-BD27-969983780E2D}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1266,9 +1281,6 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
       <c r="D16" t="s">
         <v>181</v>
       </c>
@@ -1296,6 +1308,9 @@
       </c>
       <c r="B18">
         <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
       </c>
       <c r="D18" t="s">
         <v>181</v>
@@ -1656,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34ED606F-7D44-425C-9AB4-0194CB2BBAC3}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2195,7 +2210,7 @@
         <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -2212,7 +2227,7 @@
         <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
@@ -2586,6 +2601,40 @@
         <v>23</v>
       </c>
       <c r="E54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55" t="s">
+        <v>199</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" t="s">
+        <v>203</v>
+      </c>
+      <c r="C56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" t="s">
+        <v>201</v>
+      </c>
+      <c r="E56" t="s">
         <v>113</v>
       </c>
     </row>
